--- a/NEW HR/SARDINOLA, REBECCA.xlsx
+++ b/NEW HR/SARDINOLA, REBECCA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\DONE 2-2-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -189,9 +189,6 @@
     <t>FL(5-0-0)</t>
   </si>
   <si>
-    <t>SARDINOLA, REBECCA</t>
-  </si>
-  <si>
     <t>SL(1-0-0)</t>
   </si>
   <si>
@@ -285,10 +282,16 @@
     <t>6/27,28/2022</t>
   </si>
   <si>
-    <t>12/29, 1/6</t>
+    <t>12/16,19,23,26,30</t>
   </si>
   <si>
-    <t>12/16,19,23,26,30</t>
+    <t>SARDIÑOLA, REBECCA</t>
+  </si>
+  <si>
+    <t>4/4,5/2023</t>
+  </si>
+  <si>
+    <t>12/29, 1/6/2023</t>
   </si>
 </sst>
 </file>
@@ -676,15 +679,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -697,11 +691,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1398,7 +1401,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1441,7 +1444,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1505,7 +1508,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1565,7 +1568,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1631,7 +1634,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1694,7 +1697,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1792,7 +1795,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1851,7 +1854,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,7 +1919,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1959,7 +1962,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2034,7 +2037,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2223,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2286,7 +2289,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2347,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2413,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2466,7 +2469,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2541,7 +2544,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2584,7 +2587,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2650,7 +2653,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2706,7 +2709,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2804,7 +2807,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2867,7 +2870,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3344,9 +3347,9 @@
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A58" activePane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
+      <pane ySplit="4050" topLeftCell="A70" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3369,21 +3372,21 @@
         <v>9</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3394,14 +3397,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3414,14 +3417,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3447,18 +3450,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3505,7 +3508,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>51.25</v>
+        <v>53.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3515,7 +3518,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>74.25</v>
+        <v>74.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3929,7 +3932,7 @@
         <v>43647</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="13">
         <v>1.25</v>
@@ -4075,7 +4078,7 @@
         <v>43831</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" s="13">
         <v>1.25</v>
@@ -4091,7 +4094,7 @@
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
       <c r="K37" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -4199,7 +4202,7 @@
         <v>44013</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="13">
         <v>1.25</v>
@@ -4845,7 +4848,7 @@
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
       <c r="K74" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4871,7 +4874,7 @@
         <v>44927</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C76" s="13">
         <v>1.25</v>
@@ -4889,19 +4892,23 @@
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
       <c r="K76" s="20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
+      <c r="A77" s="40">
+        <v>44958</v>
+      </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
@@ -4909,15 +4916,19 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>44986</v>
+      </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -4925,8 +4936,12 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
-      <c r="B79" s="20"/>
+      <c r="A79" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C79" s="13"/>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
@@ -4935,10 +4950,14 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H79" s="39"/>
+      <c r="H79" s="39">
+        <v>2</v>
+      </c>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
+      <c r="K79" s="20" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
@@ -5822,17 +5841,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5894,21 +5913,21 @@
       </c>
       <c r="B2" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B2:C2),"---------",'2018 LEAVE CREDITS'!B2:C2)</f>
-        <v>SARDINOLA, REBECCA</v>
+        <v>SARDIÑOLA, REBECCA</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5922,17 +5941,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58" t="str">
+      <c r="F3" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5946,17 +5965,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="str">
+      <c r="F4" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5982,18 +6001,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6082,7 +6101,7 @@
         <v>43160</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="39"/>
@@ -6106,7 +6125,7 @@
         <v>43191</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="39"/>
@@ -6122,13 +6141,13 @@
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
       <c r="K12" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="39"/>
@@ -6152,7 +6171,7 @@
         <v>43252</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="39"/>
@@ -6174,7 +6193,7 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="39"/>
@@ -6190,7 +6209,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
       <c r="K15" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6198,7 +6217,7 @@
         <v>43313</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="43"/>
@@ -6222,7 +6241,7 @@
         <v>43374</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="39"/>
@@ -6244,7 +6263,7 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="39"/>
@@ -6260,13 +6279,13 @@
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
       <c r="K18" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="39"/>
@@ -6290,7 +6309,7 @@
         <v>43405</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="39"/>
@@ -6332,7 +6351,7 @@
         <v>43466</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="39"/>
@@ -6348,7 +6367,7 @@
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
       <c r="K22" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -6356,7 +6375,7 @@
         <v>43497</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
@@ -6372,7 +6391,7 @@
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
       <c r="K23" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -6380,7 +6399,7 @@
         <v>43678</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="39"/>
@@ -6396,13 +6415,13 @@
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
       <c r="K24" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="39">
@@ -6426,7 +6445,7 @@
         <v>43739</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="39">
@@ -6450,7 +6469,7 @@
         <v>43800</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="39"/>
@@ -6466,7 +6485,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
       <c r="K27" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -6492,7 +6511,7 @@
         <v>43891</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="39">
@@ -6508,13 +6527,13 @@
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
       <c r="K29" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="39">
@@ -6530,7 +6549,7 @@
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
       <c r="K30" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -6538,7 +6557,7 @@
         <v>43983</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="39">
@@ -6560,7 +6579,7 @@
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="39">
@@ -6576,7 +6595,7 @@
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
       <c r="K32" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -6584,7 +6603,7 @@
         <v>44013</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="39">
@@ -6600,13 +6619,13 @@
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
       <c r="K33" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="39">
@@ -6622,13 +6641,13 @@
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
       <c r="K34" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="39">
@@ -6644,13 +6663,13 @@
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
       <c r="K35" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="39">
@@ -6672,7 +6691,7 @@
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="39">
@@ -6714,7 +6733,7 @@
         <v>44682</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="39">
@@ -6730,13 +6749,13 @@
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
       <c r="K39" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="39">
@@ -6752,7 +6771,7 @@
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
       <c r="K40" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -6760,7 +6779,7 @@
         <v>44713</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="39">
@@ -6776,13 +6795,13 @@
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
       <c r="K41" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="39">
@@ -6798,13 +6817,13 @@
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
       <c r="K42" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="39">
@@ -6820,13 +6839,13 @@
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
       <c r="K43" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="39">
@@ -6842,13 +6861,13 @@
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
       <c r="K44" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="39">
@@ -6870,7 +6889,7 @@
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="39">
@@ -6886,7 +6905,7 @@
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
       <c r="K46" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -6912,7 +6931,7 @@
         <v>44958</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="39"/>

--- a/NEW HR/SARDINOLA, REBECCA.xlsx
+++ b/NEW HR/SARDINOLA, REBECCA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -679,6 +679,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -691,20 +700,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1401,7 +1401,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1444,7 +1444,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1508,7 +1508,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,7 +1568,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1634,7 +1634,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1697,7 +1697,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1795,7 +1795,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1854,7 +1854,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1919,7 +1919,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1962,7 +1962,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2037,7 +2037,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2223,7 +2223,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2289,7 +2289,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2347,7 +2347,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2413,7 +2413,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2469,7 +2469,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2544,7 +2544,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2587,7 +2587,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2653,7 +2653,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2709,7 +2709,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2807,7 +2807,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2870,7 +2870,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3347,9 +3347,9 @@
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3379,14 +3379,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3397,14 +3397,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3417,14 +3417,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3450,18 +3450,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3508,7 +3508,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3518,7 +3518,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>74.75</v>
+        <v>75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4942,13 +4942,15 @@
       <c r="B79" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39">
         <v>2</v>
@@ -4960,8 +4962,12 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
-      <c r="B80" s="20"/>
+      <c r="A80" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
@@ -4970,10 +4976,14 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H80" s="39"/>
+      <c r="H80" s="39">
+        <v>1</v>
+      </c>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
+      <c r="K80" s="49">
+        <v>45044</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
@@ -5841,17 +5851,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5920,14 +5930,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5941,17 +5951,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55" t="str">
+      <c r="F3" s="58" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5965,17 +5975,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="str">
+      <c r="F4" s="52" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6001,18 +6011,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/SARDINOLA, REBECCA.xlsx
+++ b/NEW HR/SARDINOLA, REBECCA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="88">
   <si>
     <t>PERIOD</t>
   </si>
@@ -292,6 +292,15 @@
   </si>
   <si>
     <t>12/29, 1/6/2023</t>
+  </si>
+  <si>
+    <t>5/5, 15/2023</t>
+  </si>
+  <si>
+    <t>03/20-21,27/2023</t>
+  </si>
+  <si>
+    <t>5/26,6/1-2/2023</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1410,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1444,7 +1453,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1508,7 +1517,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,7 +1577,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1634,7 +1643,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1697,7 +1706,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1795,7 +1804,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1854,7 +1863,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1919,7 +1928,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1962,7 +1971,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2037,7 +2046,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2223,7 +2232,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2289,7 +2298,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2347,7 +2356,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2413,7 +2422,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2469,7 +2478,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2544,7 +2553,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2587,7 +2596,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2653,7 +2662,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2709,7 +2718,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2807,7 +2816,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2870,7 +2879,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3346,10 +3355,10 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A67" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A73" activePane="bottomLeft"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection pane="bottomLeft" activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3508,7 +3517,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>55</v>
+        <v>56.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3518,7 +3527,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>75</v>
+        <v>68.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4919,7 +4928,9 @@
       <c r="A78" s="40">
         <v>44986</v>
       </c>
-      <c r="B78" s="20"/>
+      <c r="B78" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C78" s="13">
         <v>1.25</v>
       </c>
@@ -4930,10 +4941,14 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H78" s="39"/>
+      <c r="H78" s="39">
+        <v>3</v>
+      </c>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
+      <c r="K78" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
@@ -4968,13 +4983,15 @@
       <c r="B80" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39">
         <v>1</v>
@@ -4987,7 +5004,9 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
-      <c r="B81" s="20"/>
+      <c r="B81" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
@@ -4996,26 +5015,35 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H81" s="39"/>
+      <c r="H81" s="39">
+        <v>2</v>
+      </c>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
+      <c r="K81" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
-      <c r="B82" s="20"/>
+      <c r="A82" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H82" s="39"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="39">
+        <v>3</v>
+      </c>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
+      <c r="K82" s="20" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
@@ -5896,7 +5924,7 @@
   </sheetPr>
   <dimension ref="A2:K132"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A38" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
       <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>

--- a/NEW HR/SARDINOLA, REBECCA.xlsx
+++ b/NEW HR/SARDINOLA, REBECCA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852E808A-3E15-400C-B8DC-260D852B75E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="89">
   <si>
     <t>PERIOD</t>
   </si>
@@ -302,11 +303,14 @@
   <si>
     <t>5/26,6/1-2/2023</t>
   </si>
+  <si>
+    <t>7/23,26,27/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -688,15 +692,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -709,11 +704,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1410,7 +1414,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1453,7 +1457,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1517,7 +1521,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1577,7 +1581,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1643,7 +1647,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1706,7 +1710,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1804,7 +1808,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1863,7 +1867,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1928,7 +1932,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1971,7 +1975,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2046,7 +2050,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2232,7 +2236,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2298,7 +2302,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2356,7 +2360,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2422,7 +2426,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2478,7 +2482,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2553,7 +2557,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2596,7 +2600,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2662,7 +2666,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2718,7 +2722,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2816,7 +2820,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2879,7 +2883,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2928,7 +2932,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2945,25 +2949,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2975,25 +2979,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3005,13 +3009,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3020,14 +3024,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3331,7 +3335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3341,7 +3345,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3349,34 +3353,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A73" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4056" topLeftCell="A78" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="J82" sqref="J82"/>
+      <selection pane="bottomLeft" activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3388,16 +3392,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3406,16 +3410,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3426,16 +3430,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3443,7 +3447,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3456,24 +3460,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3508,7 +3512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3517,7 +3521,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>56.25</v>
+        <v>57.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3527,12 +3531,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>68.25</v>
+        <v>65.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3554,7 +3558,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3574,7 +3578,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3594,7 +3598,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3614,7 +3618,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3634,7 +3638,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3654,7 +3658,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3674,7 +3678,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3694,7 +3698,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3714,7 +3718,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3734,7 +3738,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3754,7 +3758,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3774,7 +3778,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3798,7 +3802,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3816,7 +3820,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3836,7 +3840,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3856,7 +3860,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3876,7 +3880,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3896,7 +3900,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3916,7 +3920,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3936,7 +3940,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3960,7 +3964,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3980,7 +3984,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -4000,7 +4004,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -4020,7 +4024,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -4040,7 +4044,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4064,7 +4068,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4082,7 +4086,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4106,7 +4110,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4126,7 +4130,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -4146,7 +4150,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -4166,7 +4170,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -4186,7 +4190,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -4206,7 +4210,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -4230,7 +4234,7 @@
         <v>44035</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4250,7 +4254,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -4270,7 +4274,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4290,7 +4294,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4310,7 +4314,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4334,7 +4338,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4352,7 +4356,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4372,7 +4376,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4392,7 +4396,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4412,7 +4416,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4432,7 +4436,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4452,7 +4456,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4472,7 +4476,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4492,7 +4496,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4512,7 +4516,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4532,7 +4536,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4552,7 +4556,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4572,7 +4576,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4596,7 +4600,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4614,7 +4618,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4634,7 +4638,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4654,7 +4658,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4674,7 +4678,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4694,7 +4698,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4714,7 +4718,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4734,7 +4738,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4754,7 +4758,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4774,7 +4778,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4794,7 +4798,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4814,7 +4818,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4834,7 +4838,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4860,7 +4864,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>47</v>
       </c>
@@ -4878,9 +4882,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B76" s="20" t="s">
         <v>51</v>
@@ -4904,9 +4908,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13">
@@ -4924,9 +4928,9 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B78" s="20" t="s">
         <v>54</v>
@@ -4950,9 +4954,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B79" s="20" t="s">
         <v>51</v>
@@ -4976,9 +4980,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B80" s="20" t="s">
         <v>50</v>
@@ -5002,7 +5006,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>51</v>
@@ -5024,14 +5028,16 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B82" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
@@ -5045,9 +5051,13 @@
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
-      <c r="B83" s="20"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="40">
+        <v>45138</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
@@ -5056,13 +5066,19 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H83" s="39"/>
+      <c r="H83" s="39">
+        <v>3</v>
+      </c>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+      <c r="K83" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="40">
+        <v>45169</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -5077,8 +5093,10 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="40">
+        <v>45199</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -5093,8 +5111,10 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="40">
+        <v>45230</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -5109,8 +5129,10 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="40">
+        <v>45260</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -5125,7 +5147,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5141,7 +5163,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5157,7 +5179,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5173,7 +5195,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5189,7 +5211,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5205,7 +5227,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5221,7 +5243,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5237,7 +5259,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5253,7 +5275,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5269,7 +5291,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5285,7 +5307,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5301,7 +5323,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5317,7 +5339,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5333,7 +5355,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5349,7 +5371,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5365,7 +5387,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5381,7 +5403,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5397,7 +5419,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5413,7 +5435,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5429,7 +5451,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5445,7 +5467,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5461,7 +5483,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5477,7 +5499,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5493,7 +5515,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5509,7 +5531,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5525,7 +5547,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5541,7 +5563,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5557,7 +5579,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5573,7 +5595,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5589,7 +5611,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5605,7 +5627,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5621,7 +5643,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5637,7 +5659,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5653,7 +5675,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5669,7 +5691,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5685,7 +5707,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5701,7 +5723,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5717,7 +5739,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5733,7 +5755,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5749,7 +5771,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5765,7 +5787,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5781,7 +5803,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5797,7 +5819,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5813,7 +5835,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5829,7 +5851,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5845,7 +5867,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5861,7 +5883,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="41"/>
       <c r="B134" s="15"/>
       <c r="C134" s="42"/>
@@ -5879,23 +5901,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5918,34 +5940,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A38" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4428" topLeftCell="A44" activePane="bottomLeft"/>
+      <selection activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5958,16 +5980,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5979,19 +6001,19 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58" t="str">
+      <c r="F3" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6003,19 +6025,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="str">
+      <c r="F4" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6023,7 +6045,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6036,24 +6058,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6088,7 +6110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6112,7 +6134,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6134,7 +6156,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43160</v>
       </c>
@@ -6158,7 +6180,7 @@
         <v>43175</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43191</v>
       </c>
@@ -6182,7 +6204,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>50</v>
@@ -6204,7 +6226,7 @@
         <v>43193</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43252</v>
       </c>
@@ -6228,7 +6250,7 @@
         <v>43278</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>51</v>
@@ -6250,7 +6272,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43313</v>
       </c>
@@ -6274,7 +6296,7 @@
         <v>43341</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43374</v>
       </c>
@@ -6298,7 +6320,7 @@
         <v>43384</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>54</v>
@@ -6320,7 +6342,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>50</v>
@@ -6342,7 +6364,7 @@
         <v>43404</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43405</v>
       </c>
@@ -6366,7 +6388,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="48" t="s">
         <v>43</v>
       </c>
@@ -6384,7 +6406,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43466</v>
       </c>
@@ -6408,7 +6430,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43497</v>
       </c>
@@ -6432,7 +6454,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43678</v>
       </c>
@@ -6456,7 +6478,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>60</v>
@@ -6478,7 +6500,7 @@
         <v>43700</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43739</v>
       </c>
@@ -6502,7 +6524,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43800</v>
       </c>
@@ -6526,7 +6548,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
         <v>44</v>
       </c>
@@ -6544,7 +6566,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43891</v>
       </c>
@@ -6568,7 +6590,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>66</v>
@@ -6590,7 +6612,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43983</v>
       </c>
@@ -6614,7 +6636,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>66</v>
@@ -6636,7 +6658,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>44013</v>
       </c>
@@ -6660,7 +6682,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>69</v>
@@ -6682,7 +6704,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>70</v>
@@ -6704,7 +6726,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>60</v>
@@ -6726,7 +6748,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>60</v>
@@ -6748,7 +6770,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="48" t="s">
         <v>46</v>
       </c>
@@ -6766,7 +6788,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>44682</v>
       </c>
@@ -6790,7 +6812,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>66</v>
@@ -6812,7 +6834,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>44713</v>
       </c>
@@ -6836,7 +6858,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>68</v>
@@ -6858,7 +6880,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>66</v>
@@ -6880,7 +6902,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>66</v>
@@ -6902,7 +6924,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>60</v>
@@ -6924,7 +6946,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>66</v>
@@ -6946,7 +6968,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="48" t="s">
         <v>47</v>
       </c>
@@ -6964,7 +6986,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44958</v>
       </c>
@@ -6986,7 +7008,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -7002,7 +7024,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -7018,7 +7040,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -7034,7 +7056,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -7050,7 +7072,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -7066,7 +7088,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -7082,7 +7104,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -7098,7 +7120,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -7114,7 +7136,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7130,7 +7152,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7146,7 +7168,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7162,7 +7184,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7178,7 +7200,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7194,7 +7216,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7210,7 +7232,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7226,7 +7248,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7242,7 +7264,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7258,7 +7280,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7274,7 +7296,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7290,7 +7312,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7306,7 +7328,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7322,7 +7344,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7338,7 +7360,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7354,7 +7376,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7370,7 +7392,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7386,7 +7408,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7402,7 +7424,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7418,7 +7440,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7434,7 +7456,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7450,7 +7472,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7466,7 +7488,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7482,7 +7504,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7498,7 +7520,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7514,7 +7536,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7530,7 +7552,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7546,7 +7568,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7562,7 +7584,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7578,7 +7600,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7594,7 +7616,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7610,7 +7632,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7626,7 +7648,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7642,7 +7664,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7658,7 +7680,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7674,7 +7696,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7690,7 +7712,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7706,7 +7728,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7722,7 +7744,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7738,7 +7760,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7754,7 +7776,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7770,7 +7792,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7786,7 +7808,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7802,7 +7824,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7818,7 +7840,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7834,7 +7856,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7850,7 +7872,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7866,7 +7888,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7882,7 +7904,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7898,7 +7920,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7914,7 +7936,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7930,7 +7952,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7946,7 +7968,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7962,7 +7984,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7978,7 +8000,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7994,7 +8016,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -8010,7 +8032,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -8026,7 +8048,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -8042,7 +8064,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -8058,7 +8080,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8074,7 +8096,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8090,7 +8112,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8106,7 +8128,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8122,7 +8144,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8138,7 +8160,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8154,7 +8176,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8170,7 +8192,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8186,7 +8208,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8202,7 +8224,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8218,7 +8240,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8234,7 +8256,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8250,7 +8272,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8266,7 +8288,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8282,7 +8304,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8298,7 +8320,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -8314,7 +8336,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="41"/>
       <c r="B132" s="15"/>
       <c r="C132" s="42"/>
@@ -8345,10 +8367,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8371,7 +8393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8379,21 +8401,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -8406,7 +8428,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8435,7 +8457,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>79.099000000000004</v>
       </c>
@@ -8459,17 +8481,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8490,7 +8512,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8517,7 +8539,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8543,7 +8565,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8569,7 +8591,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8595,7 +8617,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8621,7 +8643,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8647,7 +8669,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8673,7 +8695,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8699,7 +8721,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8719,7 +8741,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8739,7 +8761,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8759,7 +8781,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8780,7 +8802,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8801,7 +8823,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8822,7 +8844,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8843,7 +8865,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8864,7 +8886,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8885,7 +8907,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8906,7 +8928,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8927,7 +8949,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8948,7 +8970,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8969,7 +8991,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8990,7 +9012,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9011,7 +9033,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9032,7 +9054,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9053,7 +9075,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9074,7 +9096,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9095,7 +9117,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9116,7 +9138,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9137,7 +9159,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9158,7 +9180,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9179,7 +9201,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9188,7 +9210,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9197,7 +9219,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9206,7 +9228,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9215,7 +9237,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9224,7 +9246,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9233,7 +9255,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9242,7 +9264,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9251,7 +9273,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9260,7 +9282,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9269,7 +9291,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9278,7 +9300,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9287,7 +9309,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9296,7 +9318,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9305,7 +9327,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9314,7 +9336,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9323,7 +9345,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9332,7 +9354,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9341,7 +9363,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9350,7 +9372,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9359,7 +9381,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9368,7 +9390,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9377,7 +9399,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9386,7 +9408,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9395,7 +9417,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9404,7 +9426,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9413,7 +9435,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9422,7 +9444,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9431,7 +9453,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9440,7 +9462,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/SARDINOLA, REBECCA.xlsx
+++ b/NEW HR/SARDINOLA, REBECCA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852E808A-3E15-400C-B8DC-260D852B75E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B60F6D-A0E9-4D18-A87D-5D1939E476D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>PERIOD</t>
   </si>
@@ -305,6 +305,15 @@
   </si>
   <si>
     <t>7/23,26,27/2023</t>
+  </si>
+  <si>
+    <t>7/11,12/2023</t>
+  </si>
+  <si>
+    <t>7/27-28/2023</t>
+  </si>
+  <si>
+    <t>SP(2-0-0)</t>
   </si>
 </sst>
 </file>
@@ -692,6 +701,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -704,20 +722,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2949,7 +2958,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K136" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
@@ -3357,12 +3366,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A78" activePane="bottomLeft"/>
+      <pane ySplit="4056" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="K84" sqref="K84"/>
+      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3392,14 +3401,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3410,14 +3419,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3430,14 +3439,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3463,18 +3472,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3521,7 +3530,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>57.5</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3531,7 +3540,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>65.25</v>
+        <v>64.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4912,7 +4921,9 @@
       <c r="A77" s="40">
         <v>44985</v>
       </c>
-      <c r="B77" s="20"/>
+      <c r="B77" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C77" s="13">
         <v>1.25</v>
       </c>
@@ -4926,7 +4937,9 @@
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="20"/>
+      <c r="K77" s="20">
+        <v>44977</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
@@ -5058,13 +5071,15 @@
       <c r="B83" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39">
         <v>3</v>
@@ -5076,10 +5091,10 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40">
-        <v>45169</v>
-      </c>
-      <c r="B84" s="20"/>
+      <c r="A84" s="40"/>
+      <c r="B84" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
@@ -5088,16 +5103,20 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H84" s="39"/>
+      <c r="H84" s="39">
+        <v>2</v>
+      </c>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="20" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40">
-        <v>45199</v>
-      </c>
-      <c r="B85" s="20"/>
+      <c r="A85" s="40"/>
+      <c r="B85" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
@@ -5109,11 +5128,13 @@
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
+      <c r="K85" s="20" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>45230</v>
+        <v>45169</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -5131,7 +5152,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <v>45260</v>
+        <v>45199</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -5148,7 +5169,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45230</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -5164,7 +5187,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45260</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -5884,34 +5909,66 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="41"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="43"/>
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="43"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="40"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="39"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="41"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="43"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -5947,9 +6004,9 @@
   <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4428" topLeftCell="A44" activePane="bottomLeft"/>
-      <selection activeCell="F8" sqref="F8"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <pane ySplit="4428" topLeftCell="A43" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5980,14 +6037,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -6001,17 +6058,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55" t="str">
+      <c r="F3" s="58" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -6025,17 +6082,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="str">
+      <c r="F4" s="52" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -6061,18 +6118,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -6987,12 +7044,8 @@
       <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="A48" s="40"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="13"/>
       <c r="D48" s="39"/>
       <c r="E48" s="9"/>
@@ -7004,9 +7057,7 @@
       <c r="H48" s="39"/>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="49">
-        <v>44977</v>
-      </c>
+      <c r="K48" s="49"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>

--- a/NEW HR/SARDINOLA, REBECCA.xlsx
+++ b/NEW HR/SARDINOLA, REBECCA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B60F6D-A0E9-4D18-A87D-5D1939E476D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="99">
   <si>
     <t>PERIOD</t>
   </si>
@@ -314,12 +313,33 @@
   </si>
   <si>
     <t>SP(2-0-0)</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>8/10,11/2023</t>
+  </si>
+  <si>
+    <t>8/24-25/2023</t>
+  </si>
+  <si>
+    <t>8/17-18/2023</t>
+  </si>
+  <si>
+    <t>8/31 - 9/1/2023</t>
+  </si>
+  <si>
+    <t>VL(8-0-0)</t>
+  </si>
+  <si>
+    <t>9/7,8,14,15,21,22,28,29/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -701,15 +721,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -722,11 +733,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1423,7 +1443,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1466,7 +1486,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1530,7 +1550,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1590,7 +1610,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1656,7 +1676,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1719,7 +1739,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1817,7 +1837,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1876,7 +1896,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1941,7 +1961,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1984,7 +2004,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2059,7 +2079,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2245,7 +2265,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,7 +2331,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2369,7 +2389,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2435,7 +2455,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2491,7 +2511,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2566,7 +2586,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2609,7 +2629,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2675,7 +2695,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2731,7 +2751,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2829,7 +2849,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2892,7 +2912,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2941,7 +2961,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2958,25 +2978,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K136" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K136" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2988,25 +3008,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K122" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3018,13 +3038,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3033,14 +3053,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3344,7 +3364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3354,7 +3374,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3362,34 +3382,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A76" activePane="bottomLeft"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
+      <selection pane="bottomLeft" activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3401,16 +3421,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3419,16 +3439,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3439,16 +3459,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3456,7 +3476,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3469,24 +3489,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3521,7 +3541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3530,7 +3550,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>58.75</v>
+        <v>60</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3540,12 +3560,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>64.5</v>
+        <v>64.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3567,7 +3587,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3587,7 +3607,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3607,7 +3627,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3627,7 +3647,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3647,7 +3667,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3667,7 +3687,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3687,7 +3707,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3707,7 +3727,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3727,7 +3747,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3747,7 +3767,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3767,7 +3787,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3787,7 +3807,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3811,7 +3831,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3829,7 +3849,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3849,7 +3869,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3869,7 +3889,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3889,7 +3909,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3909,7 +3929,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3929,7 +3949,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3949,7 +3969,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3973,7 +3993,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3993,7 +4013,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -4013,7 +4033,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -4033,7 +4053,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -4053,7 +4073,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4077,7 +4097,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4095,7 +4115,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4119,7 +4139,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4139,7 +4159,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -4159,7 +4179,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -4179,7 +4199,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -4199,7 +4219,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -4219,7 +4239,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -4243,7 +4263,7 @@
         <v>44035</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4263,7 +4283,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -4283,7 +4303,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4303,7 +4323,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4323,7 +4343,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4347,7 +4367,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4365,7 +4385,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4385,7 +4405,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4405,7 +4425,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4425,7 +4445,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4445,7 +4465,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4465,7 +4485,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4485,7 +4505,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4505,7 +4525,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4525,7 +4545,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4545,7 +4565,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4565,7 +4585,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4585,7 +4605,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4609,7 +4629,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4627,7 +4647,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4647,7 +4667,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4667,7 +4687,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4687,7 +4707,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4707,7 +4727,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4727,7 +4747,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4747,7 +4767,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4767,7 +4787,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4787,7 +4807,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4807,7 +4827,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4827,7 +4847,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4847,7 +4867,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4873,7 +4893,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>47</v>
       </c>
@@ -4891,7 +4911,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44957</v>
       </c>
@@ -4917,7 +4937,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44985</v>
       </c>
@@ -4941,7 +4961,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>45016</v>
       </c>
@@ -4967,7 +4987,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45046</v>
       </c>
@@ -4993,7 +5013,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45077</v>
       </c>
@@ -5019,7 +5039,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>51</v>
@@ -5041,7 +5061,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45107</v>
       </c>
@@ -5064,7 +5084,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45138</v>
       </c>
@@ -5090,7 +5110,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>51</v>
@@ -5112,7 +5132,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>91</v>
@@ -5132,29 +5152,33 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45169</v>
       </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45199</v>
       </c>
-      <c r="B87" s="20"/>
+      <c r="B87" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
@@ -5163,12 +5187,16 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H87" s="39"/>
+      <c r="H87" s="39">
+        <v>1</v>
+      </c>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="49">
+        <v>45175</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45230</v>
       </c>
@@ -5186,7 +5214,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45260</v>
       </c>
@@ -5204,7 +5232,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5220,7 +5248,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5236,7 +5264,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5252,7 +5280,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5268,7 +5296,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5284,7 +5312,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5300,7 +5328,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5316,7 +5344,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5332,7 +5360,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5348,7 +5376,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5364,7 +5392,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5380,7 +5408,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5396,7 +5424,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5412,7 +5440,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5428,7 +5456,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5444,7 +5472,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5460,7 +5488,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5476,7 +5504,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5492,7 +5520,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5508,7 +5536,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5524,7 +5552,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5540,7 +5568,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5556,7 +5584,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5572,7 +5600,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5588,7 +5616,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5604,7 +5632,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5620,7 +5648,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5636,7 +5664,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5652,7 +5680,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5668,7 +5696,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5684,7 +5712,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5700,7 +5728,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5716,7 +5744,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5732,7 +5760,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5748,7 +5776,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5764,7 +5792,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5780,7 +5808,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5796,7 +5824,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5812,7 +5840,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5828,7 +5856,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5844,7 +5872,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5860,7 +5888,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5876,7 +5904,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5892,7 +5920,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5908,7 +5936,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5924,7 +5952,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5940,7 +5968,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="41"/>
       <c r="B136" s="15"/>
       <c r="C136" s="42"/>
@@ -5958,23 +5986,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5997,34 +6025,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K132"/>
+  <dimension ref="A2:K122"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4428" topLeftCell="A43" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4425" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="K48" sqref="K48"/>
+      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6037,16 +6065,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6058,19 +6086,19 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58" t="str">
+      <c r="F3" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6082,19 +6110,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="str">
+      <c r="F4" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6102,7 +6130,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6115,24 +6143,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6167,7 +6195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6176,7 +6204,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>35.099000000000004</v>
+        <v>19.099000000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6191,7 +6219,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6213,7 +6241,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43160</v>
       </c>
@@ -6237,7 +6265,7 @@
         <v>43175</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43191</v>
       </c>
@@ -6261,7 +6289,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>50</v>
@@ -6283,7 +6311,7 @@
         <v>43193</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43252</v>
       </c>
@@ -6307,7 +6335,7 @@
         <v>43278</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>51</v>
@@ -6329,7 +6357,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43313</v>
       </c>
@@ -6353,7 +6381,7 @@
         <v>43341</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43374</v>
       </c>
@@ -6377,7 +6405,7 @@
         <v>43384</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>54</v>
@@ -6399,7 +6427,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>50</v>
@@ -6421,7 +6449,7 @@
         <v>43404</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43405</v>
       </c>
@@ -6445,7 +6473,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
         <v>43</v>
       </c>
@@ -6463,7 +6491,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43466</v>
       </c>
@@ -6487,7 +6515,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43497</v>
       </c>
@@ -6511,7 +6539,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43678</v>
       </c>
@@ -6535,7 +6563,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>60</v>
@@ -6557,7 +6585,7 @@
         <v>43700</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43739</v>
       </c>
@@ -6581,7 +6609,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43800</v>
       </c>
@@ -6605,7 +6633,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>44</v>
       </c>
@@ -6623,7 +6651,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43891</v>
       </c>
@@ -6647,7 +6675,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>66</v>
@@ -6669,7 +6697,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43983</v>
       </c>
@@ -6693,7 +6721,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>66</v>
@@ -6715,7 +6743,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>44013</v>
       </c>
@@ -6739,7 +6767,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>69</v>
@@ -6761,7 +6789,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>70</v>
@@ -6783,7 +6811,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>60</v>
@@ -6805,7 +6833,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>60</v>
@@ -6827,7 +6855,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
         <v>46</v>
       </c>
@@ -6845,7 +6873,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>44682</v>
       </c>
@@ -6869,7 +6897,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>66</v>
@@ -6891,7 +6919,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>44713</v>
       </c>
@@ -6915,7 +6943,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>68</v>
@@ -6937,7 +6965,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>66</v>
@@ -6959,7 +6987,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>66</v>
@@ -6981,7 +7009,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>60</v>
@@ -7003,7 +7031,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>66</v>
@@ -7025,7 +7053,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
         <v>47</v>
       </c>
@@ -7043,11 +7071,17 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="40"/>
-      <c r="B48" s="20"/>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="40">
+        <v>45148</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="39"/>
+      <c r="D48" s="39">
+        <v>2</v>
+      </c>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
       <c r="G48" s="13" t="str">
@@ -7057,13 +7091,19 @@
       <c r="H48" s="39"/>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="49"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K48" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
-      <c r="B49" s="20"/>
+      <c r="B49" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="C49" s="13"/>
-      <c r="D49" s="39"/>
+      <c r="D49" s="39">
+        <v>2</v>
+      </c>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
       <c r="G49" s="13" t="str">
@@ -7073,13 +7113,19 @@
       <c r="H49" s="39"/>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="20"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K49" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
-      <c r="B50" s="20"/>
+      <c r="B50" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="39"/>
+      <c r="D50" s="39">
+        <v>2</v>
+      </c>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
       <c r="G50" s="13" t="str">
@@ -7089,13 +7135,19 @@
       <c r="H50" s="39"/>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="20"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
-      <c r="B51" s="20"/>
+      <c r="B51" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="C51" s="13"/>
-      <c r="D51" s="39"/>
+      <c r="D51" s="39">
+        <v>2</v>
+      </c>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
       <c r="G51" s="13" t="str">
@@ -7105,13 +7157,21 @@
       <c r="H51" s="39"/>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="20"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="40"/>
-      <c r="B52" s="20"/>
+      <c r="K51" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>97</v>
+      </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="39"/>
+      <c r="D52" s="39">
+        <v>8</v>
+      </c>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
       <c r="G52" s="13" t="str">
@@ -7121,9 +7181,11 @@
       <c r="H52" s="39"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="20"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K52" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -7139,7 +7201,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -7155,7 +7217,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -7171,7 +7233,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -7187,7 +7249,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7203,7 +7265,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7219,7 +7281,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7235,7 +7297,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7251,7 +7313,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7267,7 +7329,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7283,7 +7345,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7299,7 +7361,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7315,7 +7377,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7331,7 +7393,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7347,7 +7409,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7363,7 +7425,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7379,7 +7441,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7395,7 +7457,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7411,7 +7473,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7427,7 +7489,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7443,7 +7505,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7459,7 +7521,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7475,7 +7537,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7491,7 +7553,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7507,7 +7569,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7523,7 +7585,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7539,7 +7601,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7555,7 +7617,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7571,7 +7633,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7587,7 +7649,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7603,7 +7665,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7619,7 +7681,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7635,7 +7697,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7651,7 +7713,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7667,7 +7729,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7683,7 +7745,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7699,7 +7761,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7715,7 +7777,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7731,7 +7793,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7747,7 +7809,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7763,7 +7825,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7779,7 +7841,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7795,7 +7857,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7811,7 +7873,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7827,7 +7889,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7843,7 +7905,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7859,7 +7921,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7875,7 +7937,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7891,7 +7953,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7907,7 +7969,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7923,7 +7985,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7939,7 +8001,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7955,7 +8017,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7971,7 +8033,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7987,7 +8049,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -8003,7 +8065,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -8019,7 +8081,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -8035,7 +8097,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -8051,7 +8113,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -8067,7 +8129,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -8083,7 +8145,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -8099,7 +8161,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -8115,7 +8177,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -8131,7 +8193,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8147,7 +8209,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8163,7 +8225,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8179,7 +8241,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8195,7 +8257,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8211,7 +8273,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8227,181 +8289,21 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="40"/>
-      <c r="B122" s="20"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="39"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="41"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="42"/>
+      <c r="D122" s="43"/>
       <c r="E122" s="9"/>
-      <c r="F122" s="20"/>
-      <c r="G122" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H122" s="39"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H122" s="43"/>
       <c r="I122" s="9"/>
-      <c r="J122" s="11"/>
-      <c r="K122" s="20"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="40"/>
-      <c r="B123" s="20"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="39"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="20"/>
-      <c r="G123" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H123" s="39"/>
-      <c r="I123" s="9"/>
-      <c r="J123" s="11"/>
-      <c r="K123" s="20"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="40"/>
-      <c r="B124" s="20"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H124" s="39"/>
-      <c r="I124" s="9"/>
-      <c r="J124" s="11"/>
-      <c r="K124" s="20"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="40"/>
-      <c r="B125" s="20"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="39"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H125" s="39"/>
-      <c r="I125" s="9"/>
-      <c r="J125" s="11"/>
-      <c r="K125" s="20"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="40"/>
-      <c r="B126" s="20"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="39"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H126" s="39"/>
-      <c r="I126" s="9"/>
-      <c r="J126" s="11"/>
-      <c r="K126" s="20"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="40"/>
-      <c r="B127" s="20"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="39"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="20"/>
-      <c r="G127" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H127" s="39"/>
-      <c r="I127" s="9"/>
-      <c r="J127" s="11"/>
-      <c r="K127" s="20"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="40"/>
-      <c r="B128" s="20"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="39"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="20"/>
-      <c r="G128" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H128" s="39"/>
-      <c r="I128" s="9"/>
-      <c r="J128" s="11"/>
-      <c r="K128" s="20"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="40"/>
-      <c r="B129" s="20"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="39"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="20"/>
-      <c r="G129" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H129" s="39"/>
-      <c r="I129" s="9"/>
-      <c r="J129" s="11"/>
-      <c r="K129" s="20"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="40"/>
-      <c r="B130" s="20"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="39"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="20"/>
-      <c r="G130" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="39"/>
-      <c r="I130" s="9"/>
-      <c r="J130" s="11"/>
-      <c r="K130" s="20"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="40"/>
-      <c r="B131" s="20"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="39"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="39"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="11"/>
-      <c r="K131" s="20"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="41"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="43"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="43"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="15"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8418,10 +8320,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8444,7 +8346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8452,21 +8354,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -8479,7 +8381,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8508,7 +8410,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>79.099000000000004</v>
       </c>
@@ -8532,17 +8434,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8563,7 +8465,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8590,7 +8492,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8616,7 +8518,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8642,7 +8544,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8668,7 +8570,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8694,7 +8596,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8720,7 +8622,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8746,7 +8648,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8772,7 +8674,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8792,7 +8694,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8812,7 +8714,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8832,7 +8734,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8853,7 +8755,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8874,7 +8776,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8895,7 +8797,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8916,7 +8818,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8937,7 +8839,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8958,7 +8860,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8979,7 +8881,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9000,7 +8902,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9021,7 +8923,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9042,7 +8944,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9063,7 +8965,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9084,7 +8986,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9105,7 +9007,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9126,7 +9028,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9147,7 +9049,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9168,7 +9070,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9189,7 +9091,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9210,7 +9112,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9231,7 +9133,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9252,7 +9154,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9261,7 +9163,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9270,7 +9172,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9279,7 +9181,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9288,7 +9190,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9297,7 +9199,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9306,7 +9208,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9315,7 +9217,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9324,7 +9226,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9333,7 +9235,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9342,7 +9244,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9351,7 +9253,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9360,7 +9262,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9369,7 +9271,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9378,7 +9280,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9387,7 +9289,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9396,7 +9298,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9405,7 +9307,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9414,7 +9316,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9423,7 +9325,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9432,7 +9334,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9441,7 +9343,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9450,7 +9352,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9459,7 +9361,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9468,7 +9370,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9477,7 +9379,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9486,7 +9388,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9495,7 +9397,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9504,7 +9406,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9513,7 +9415,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
